--- a/log/1步工序无错误-1,1,1,1,1,1,1,1加工日志.xlsx
+++ b/log/1步工序无错误-1,1,1,1,1,1,1,1加工日志.xlsx
@@ -375,7 +375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D383"/>
+  <dimension ref="A1:D393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>588</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -419,10 +419,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>641</v>
+        <v>624</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -433,10 +433,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" t="n">
-        <v>717</v>
+        <v>699</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -447,10 +447,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D5" t="n">
-        <v>770</v>
+        <v>751</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -461,10 +461,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D6" t="n">
-        <v>846</v>
+        <v>826</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -475,10 +475,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D7" t="n">
-        <v>899</v>
+        <v>878</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -489,10 +489,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D8" t="n">
-        <v>975</v>
+        <v>953</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -503,10 +503,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D9" t="n">
-        <v>1028</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -517,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="D10" t="n">
-        <v>1176</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -531,10 +531,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="D11" t="n">
-        <v>1232</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -545,10 +545,10 @@
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>717</v>
+        <v>699</v>
       </c>
       <c r="D12" t="n">
-        <v>1308</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -559,10 +559,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="D13" t="n">
-        <v>1361</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -573,10 +573,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>846</v>
+        <v>826</v>
       </c>
       <c r="D14" t="n">
-        <v>1437</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -587,10 +587,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>899</v>
+        <v>878</v>
       </c>
       <c r="D15" t="n">
-        <v>1490</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -601,10 +601,10 @@
         <v>7</v>
       </c>
       <c r="C16" t="n">
-        <v>975</v>
+        <v>953</v>
       </c>
       <c r="D16" t="n">
-        <v>1566</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -615,10 +615,10 @@
         <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>1028</v>
+        <v>1005</v>
       </c>
       <c r="D17" t="n">
-        <v>1619</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -629,10 +629,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1176</v>
+        <v>1144</v>
       </c>
       <c r="D18" t="n">
-        <v>1764</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -643,10 +643,10 @@
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>1232</v>
+        <v>1201</v>
       </c>
       <c r="D19" t="n">
-        <v>1823</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -657,10 +657,10 @@
         <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>1308</v>
+        <v>1276</v>
       </c>
       <c r="D20" t="n">
-        <v>1899</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -671,10 +671,10 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>1361</v>
+        <v>1328</v>
       </c>
       <c r="D21" t="n">
-        <v>1952</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -685,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>1437</v>
+        <v>1403</v>
       </c>
       <c r="D22" t="n">
-        <v>2028</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -699,10 +699,10 @@
         <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>1490</v>
+        <v>1455</v>
       </c>
       <c r="D23" t="n">
-        <v>2081</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -713,10 +713,10 @@
         <v>7</v>
       </c>
       <c r="C24" t="n">
-        <v>1566</v>
+        <v>1530</v>
       </c>
       <c r="D24" t="n">
-        <v>2157</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -727,10 +727,10 @@
         <v>8</v>
       </c>
       <c r="C25" t="n">
-        <v>1619</v>
+        <v>1582</v>
       </c>
       <c r="D25" t="n">
-        <v>2210</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -741,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1764</v>
+        <v>1716</v>
       </c>
       <c r="D26" t="n">
-        <v>2352</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -755,10 +755,10 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>1823</v>
+        <v>1778</v>
       </c>
       <c r="D27" t="n">
-        <v>2414</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -769,10 +769,10 @@
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>1899</v>
+        <v>1853</v>
       </c>
       <c r="D28" t="n">
-        <v>2490</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -783,10 +783,10 @@
         <v>4</v>
       </c>
       <c r="C29" t="n">
-        <v>1952</v>
+        <v>1905</v>
       </c>
       <c r="D29" t="n">
-        <v>2543</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -797,10 +797,10 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>2028</v>
+        <v>1980</v>
       </c>
       <c r="D30" t="n">
-        <v>2619</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -811,10 +811,10 @@
         <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>2081</v>
+        <v>2032</v>
       </c>
       <c r="D31" t="n">
-        <v>2672</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -825,10 +825,10 @@
         <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>2157</v>
+        <v>2107</v>
       </c>
       <c r="D32" t="n">
-        <v>2748</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -839,10 +839,10 @@
         <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>2210</v>
+        <v>2159</v>
       </c>
       <c r="D33" t="n">
-        <v>2801</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -853,10 +853,10 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>2352</v>
+        <v>2288</v>
       </c>
       <c r="D34" t="n">
-        <v>2940</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -867,10 +867,10 @@
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>2414</v>
+        <v>2355</v>
       </c>
       <c r="D35" t="n">
-        <v>3005</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -881,10 +881,10 @@
         <v>3</v>
       </c>
       <c r="C36" t="n">
-        <v>2490</v>
+        <v>2430</v>
       </c>
       <c r="D36" t="n">
-        <v>3081</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -895,10 +895,10 @@
         <v>4</v>
       </c>
       <c r="C37" t="n">
-        <v>2543</v>
+        <v>2482</v>
       </c>
       <c r="D37" t="n">
-        <v>3134</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -909,10 +909,10 @@
         <v>5</v>
       </c>
       <c r="C38" t="n">
-        <v>2619</v>
+        <v>2557</v>
       </c>
       <c r="D38" t="n">
-        <v>3210</v>
+        <v>3134</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -923,10 +923,10 @@
         <v>6</v>
       </c>
       <c r="C39" t="n">
-        <v>2672</v>
+        <v>2609</v>
       </c>
       <c r="D39" t="n">
-        <v>3263</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -937,10 +937,10 @@
         <v>7</v>
       </c>
       <c r="C40" t="n">
-        <v>2748</v>
+        <v>2684</v>
       </c>
       <c r="D40" t="n">
-        <v>3339</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -951,10 +951,10 @@
         <v>8</v>
       </c>
       <c r="C41" t="n">
-        <v>2801</v>
+        <v>2736</v>
       </c>
       <c r="D41" t="n">
-        <v>3392</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -965,10 +965,10 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>2940</v>
+        <v>2860</v>
       </c>
       <c r="D42" t="n">
-        <v>3528</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -979,10 +979,10 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>3005</v>
+        <v>2932</v>
       </c>
       <c r="D43" t="n">
-        <v>3596</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -993,10 +993,10 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>3081</v>
+        <v>3007</v>
       </c>
       <c r="D44" t="n">
-        <v>3672</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1007,10 +1007,10 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>3134</v>
+        <v>3059</v>
       </c>
       <c r="D45" t="n">
-        <v>3725</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1021,10 +1021,10 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>3210</v>
+        <v>3134</v>
       </c>
       <c r="D46" t="n">
-        <v>3801</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1035,10 +1035,10 @@
         <v>6</v>
       </c>
       <c r="C47" t="n">
-        <v>3263</v>
+        <v>3186</v>
       </c>
       <c r="D47" t="n">
-        <v>3854</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1049,10 +1049,10 @@
         <v>7</v>
       </c>
       <c r="C48" t="n">
-        <v>3339</v>
+        <v>3261</v>
       </c>
       <c r="D48" t="n">
-        <v>3930</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1063,10 +1063,10 @@
         <v>8</v>
       </c>
       <c r="C49" t="n">
-        <v>3392</v>
+        <v>3313</v>
       </c>
       <c r="D49" t="n">
-        <v>3983</v>
+        <v>3890</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1077,10 +1077,10 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>3528</v>
+        <v>3432</v>
       </c>
       <c r="D50" t="n">
-        <v>4116</v>
+        <v>4004</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1091,10 +1091,10 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>3596</v>
+        <v>3509</v>
       </c>
       <c r="D51" t="n">
-        <v>4187</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1105,10 +1105,10 @@
         <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>3672</v>
+        <v>3584</v>
       </c>
       <c r="D52" t="n">
-        <v>4263</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1119,10 +1119,10 @@
         <v>4</v>
       </c>
       <c r="C53" t="n">
-        <v>3725</v>
+        <v>3636</v>
       </c>
       <c r="D53" t="n">
-        <v>4316</v>
+        <v>4213</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1133,10 +1133,10 @@
         <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>3801</v>
+        <v>3711</v>
       </c>
       <c r="D54" t="n">
-        <v>4392</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1147,10 +1147,10 @@
         <v>6</v>
       </c>
       <c r="C55" t="n">
-        <v>3854</v>
+        <v>3763</v>
       </c>
       <c r="D55" t="n">
-        <v>4445</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1161,10 +1161,10 @@
         <v>7</v>
       </c>
       <c r="C56" t="n">
-        <v>3930</v>
+        <v>3838</v>
       </c>
       <c r="D56" t="n">
-        <v>4521</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1175,10 +1175,10 @@
         <v>8</v>
       </c>
       <c r="C57" t="n">
-        <v>3983</v>
+        <v>3890</v>
       </c>
       <c r="D57" t="n">
-        <v>4574</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1189,10 +1189,10 @@
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>4116</v>
+        <v>4004</v>
       </c>
       <c r="D58" t="n">
-        <v>4704</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1203,10 +1203,10 @@
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>4187</v>
+        <v>4086</v>
       </c>
       <c r="D59" t="n">
-        <v>4778</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1217,10 +1217,10 @@
         <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>4263</v>
+        <v>4161</v>
       </c>
       <c r="D60" t="n">
-        <v>4854</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1231,10 +1231,10 @@
         <v>4</v>
       </c>
       <c r="C61" t="n">
-        <v>4316</v>
+        <v>4213</v>
       </c>
       <c r="D61" t="n">
-        <v>4907</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1245,10 +1245,10 @@
         <v>5</v>
       </c>
       <c r="C62" t="n">
-        <v>4392</v>
+        <v>4288</v>
       </c>
       <c r="D62" t="n">
-        <v>4983</v>
+        <v>4865</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1259,10 +1259,10 @@
         <v>6</v>
       </c>
       <c r="C63" t="n">
-        <v>4445</v>
+        <v>4340</v>
       </c>
       <c r="D63" t="n">
-        <v>5036</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1273,10 +1273,10 @@
         <v>7</v>
       </c>
       <c r="C64" t="n">
-        <v>4521</v>
+        <v>4415</v>
       </c>
       <c r="D64" t="n">
-        <v>5112</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1287,10 +1287,10 @@
         <v>8</v>
       </c>
       <c r="C65" t="n">
-        <v>4574</v>
+        <v>4467</v>
       </c>
       <c r="D65" t="n">
-        <v>5165</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1301,10 +1301,10 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>4704</v>
+        <v>4576</v>
       </c>
       <c r="D66" t="n">
-        <v>5292</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1315,10 +1315,10 @@
         <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>4778</v>
+        <v>4663</v>
       </c>
       <c r="D67" t="n">
-        <v>5369</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1329,10 +1329,10 @@
         <v>3</v>
       </c>
       <c r="C68" t="n">
-        <v>4854</v>
+        <v>4738</v>
       </c>
       <c r="D68" t="n">
-        <v>5445</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1343,10 +1343,10 @@
         <v>4</v>
       </c>
       <c r="C69" t="n">
-        <v>4907</v>
+        <v>4790</v>
       </c>
       <c r="D69" t="n">
-        <v>5498</v>
+        <v>5367</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1357,10 +1357,10 @@
         <v>5</v>
       </c>
       <c r="C70" t="n">
-        <v>4983</v>
+        <v>4865</v>
       </c>
       <c r="D70" t="n">
-        <v>5574</v>
+        <v>5442</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1371,10 +1371,10 @@
         <v>6</v>
       </c>
       <c r="C71" t="n">
-        <v>5036</v>
+        <v>4917</v>
       </c>
       <c r="D71" t="n">
-        <v>5627</v>
+        <v>5494</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1385,10 +1385,10 @@
         <v>7</v>
       </c>
       <c r="C72" t="n">
-        <v>5112</v>
+        <v>4992</v>
       </c>
       <c r="D72" t="n">
-        <v>5703</v>
+        <v>5569</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1399,10 +1399,10 @@
         <v>8</v>
       </c>
       <c r="C73" t="n">
-        <v>5165</v>
+        <v>5044</v>
       </c>
       <c r="D73" t="n">
-        <v>5756</v>
+        <v>5621</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1413,10 +1413,10 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>5292</v>
+        <v>5148</v>
       </c>
       <c r="D74" t="n">
-        <v>5880</v>
+        <v>5724</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1427,10 +1427,10 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>5369</v>
+        <v>5240</v>
       </c>
       <c r="D75" t="n">
-        <v>5960</v>
+        <v>5817</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1441,10 +1441,10 @@
         <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>5445</v>
+        <v>5315</v>
       </c>
       <c r="D76" t="n">
-        <v>6036</v>
+        <v>5892</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1455,10 +1455,10 @@
         <v>4</v>
       </c>
       <c r="C77" t="n">
-        <v>5498</v>
+        <v>5367</v>
       </c>
       <c r="D77" t="n">
-        <v>6089</v>
+        <v>5944</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1469,10 +1469,10 @@
         <v>5</v>
       </c>
       <c r="C78" t="n">
-        <v>5574</v>
+        <v>5442</v>
       </c>
       <c r="D78" t="n">
-        <v>6165</v>
+        <v>6019</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1483,10 +1483,10 @@
         <v>6</v>
       </c>
       <c r="C79" t="n">
-        <v>5627</v>
+        <v>5494</v>
       </c>
       <c r="D79" t="n">
-        <v>6218</v>
+        <v>6071</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1497,10 +1497,10 @@
         <v>7</v>
       </c>
       <c r="C80" t="n">
-        <v>5703</v>
+        <v>5569</v>
       </c>
       <c r="D80" t="n">
-        <v>6294</v>
+        <v>6146</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="C81" t="n">
-        <v>5756</v>
+        <v>5621</v>
       </c>
       <c r="D81" t="n">
-        <v>6347</v>
+        <v>6198</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1525,10 +1525,10 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>5880</v>
+        <v>5724</v>
       </c>
       <c r="D82" t="n">
-        <v>6468</v>
+        <v>6301</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1539,10 +1539,10 @@
         <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>5960</v>
+        <v>5817</v>
       </c>
       <c r="D83" t="n">
-        <v>6551</v>
+        <v>6394</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1553,10 +1553,10 @@
         <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>6036</v>
+        <v>5892</v>
       </c>
       <c r="D84" t="n">
-        <v>6627</v>
+        <v>6469</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1567,10 +1567,10 @@
         <v>4</v>
       </c>
       <c r="C85" t="n">
-        <v>6089</v>
+        <v>5944</v>
       </c>
       <c r="D85" t="n">
-        <v>6680</v>
+        <v>6521</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1581,10 +1581,10 @@
         <v>5</v>
       </c>
       <c r="C86" t="n">
-        <v>6165</v>
+        <v>6019</v>
       </c>
       <c r="D86" t="n">
-        <v>6756</v>
+        <v>6596</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1595,10 +1595,10 @@
         <v>6</v>
       </c>
       <c r="C87" t="n">
-        <v>6218</v>
+        <v>6071</v>
       </c>
       <c r="D87" t="n">
-        <v>6809</v>
+        <v>6648</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1609,10 +1609,10 @@
         <v>7</v>
       </c>
       <c r="C88" t="n">
-        <v>6294</v>
+        <v>6146</v>
       </c>
       <c r="D88" t="n">
-        <v>6885</v>
+        <v>6723</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1623,10 +1623,10 @@
         <v>8</v>
       </c>
       <c r="C89" t="n">
-        <v>6347</v>
+        <v>6198</v>
       </c>
       <c r="D89" t="n">
-        <v>6938</v>
+        <v>6775</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1637,10 +1637,10 @@
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>6468</v>
+        <v>6301</v>
       </c>
       <c r="D90" t="n">
-        <v>7056</v>
+        <v>6878</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1651,10 +1651,10 @@
         <v>2</v>
       </c>
       <c r="C91" t="n">
-        <v>6551</v>
+        <v>6394</v>
       </c>
       <c r="D91" t="n">
-        <v>7142</v>
+        <v>6971</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1665,10 +1665,10 @@
         <v>3</v>
       </c>
       <c r="C92" t="n">
-        <v>6627</v>
+        <v>6469</v>
       </c>
       <c r="D92" t="n">
-        <v>7218</v>
+        <v>7046</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1679,10 +1679,10 @@
         <v>4</v>
       </c>
       <c r="C93" t="n">
-        <v>6680</v>
+        <v>6521</v>
       </c>
       <c r="D93" t="n">
-        <v>7271</v>
+        <v>7098</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1693,10 +1693,10 @@
         <v>5</v>
       </c>
       <c r="C94" t="n">
-        <v>6756</v>
+        <v>6596</v>
       </c>
       <c r="D94" t="n">
-        <v>7347</v>
+        <v>7173</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1707,10 +1707,10 @@
         <v>6</v>
       </c>
       <c r="C95" t="n">
-        <v>6809</v>
+        <v>6648</v>
       </c>
       <c r="D95" t="n">
-        <v>7400</v>
+        <v>7225</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1721,10 +1721,10 @@
         <v>7</v>
       </c>
       <c r="C96" t="n">
-        <v>6885</v>
+        <v>6723</v>
       </c>
       <c r="D96" t="n">
-        <v>7476</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1735,10 +1735,10 @@
         <v>8</v>
       </c>
       <c r="C97" t="n">
-        <v>6938</v>
+        <v>6775</v>
       </c>
       <c r="D97" t="n">
-        <v>7529</v>
+        <v>7352</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1749,10 +1749,10 @@
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>7056</v>
+        <v>6878</v>
       </c>
       <c r="D98" t="n">
-        <v>7644</v>
+        <v>7455</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1763,10 +1763,10 @@
         <v>2</v>
       </c>
       <c r="C99" t="n">
-        <v>7142</v>
+        <v>6971</v>
       </c>
       <c r="D99" t="n">
-        <v>7733</v>
+        <v>7548</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1777,10 +1777,10 @@
         <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>7218</v>
+        <v>7046</v>
       </c>
       <c r="D100" t="n">
-        <v>7809</v>
+        <v>7623</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1791,10 +1791,10 @@
         <v>4</v>
       </c>
       <c r="C101" t="n">
-        <v>7271</v>
+        <v>7098</v>
       </c>
       <c r="D101" t="n">
-        <v>7862</v>
+        <v>7675</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1805,10 +1805,10 @@
         <v>5</v>
       </c>
       <c r="C102" t="n">
-        <v>7347</v>
+        <v>7173</v>
       </c>
       <c r="D102" t="n">
-        <v>7938</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1819,10 +1819,10 @@
         <v>6</v>
       </c>
       <c r="C103" t="n">
-        <v>7400</v>
+        <v>7225</v>
       </c>
       <c r="D103" t="n">
-        <v>7991</v>
+        <v>7802</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1833,10 +1833,10 @@
         <v>7</v>
       </c>
       <c r="C104" t="n">
-        <v>7476</v>
+        <v>7300</v>
       </c>
       <c r="D104" t="n">
-        <v>8067</v>
+        <v>7877</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1847,10 +1847,10 @@
         <v>8</v>
       </c>
       <c r="C105" t="n">
-        <v>7529</v>
+        <v>7352</v>
       </c>
       <c r="D105" t="n">
-        <v>8120</v>
+        <v>7929</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1861,10 +1861,10 @@
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>7644</v>
+        <v>7455</v>
       </c>
       <c r="D106" t="n">
-        <v>8232</v>
+        <v>8032</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1875,10 +1875,10 @@
         <v>2</v>
       </c>
       <c r="C107" t="n">
-        <v>7733</v>
+        <v>7548</v>
       </c>
       <c r="D107" t="n">
-        <v>8324</v>
+        <v>8125</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1889,10 +1889,10 @@
         <v>3</v>
       </c>
       <c r="C108" t="n">
-        <v>7809</v>
+        <v>7623</v>
       </c>
       <c r="D108" t="n">
-        <v>8400</v>
+        <v>8200</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1903,10 +1903,10 @@
         <v>4</v>
       </c>
       <c r="C109" t="n">
-        <v>7862</v>
+        <v>7675</v>
       </c>
       <c r="D109" t="n">
-        <v>8453</v>
+        <v>8252</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1917,10 +1917,10 @@
         <v>5</v>
       </c>
       <c r="C110" t="n">
-        <v>7938</v>
+        <v>7750</v>
       </c>
       <c r="D110" t="n">
-        <v>8529</v>
+        <v>8327</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1931,10 +1931,10 @@
         <v>6</v>
       </c>
       <c r="C111" t="n">
-        <v>7991</v>
+        <v>7802</v>
       </c>
       <c r="D111" t="n">
-        <v>8582</v>
+        <v>8379</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1945,10 +1945,10 @@
         <v>7</v>
       </c>
       <c r="C112" t="n">
-        <v>8067</v>
+        <v>7877</v>
       </c>
       <c r="D112" t="n">
-        <v>8658</v>
+        <v>8454</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1959,10 +1959,10 @@
         <v>8</v>
       </c>
       <c r="C113" t="n">
-        <v>8120</v>
+        <v>7929</v>
       </c>
       <c r="D113" t="n">
-        <v>8711</v>
+        <v>8506</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1973,10 +1973,10 @@
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>8232</v>
+        <v>8032</v>
       </c>
       <c r="D114" t="n">
-        <v>8820</v>
+        <v>8609</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1987,10 +1987,10 @@
         <v>2</v>
       </c>
       <c r="C115" t="n">
-        <v>8324</v>
+        <v>8125</v>
       </c>
       <c r="D115" t="n">
-        <v>8915</v>
+        <v>8702</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2001,10 +2001,10 @@
         <v>3</v>
       </c>
       <c r="C116" t="n">
-        <v>8400</v>
+        <v>8200</v>
       </c>
       <c r="D116" t="n">
-        <v>8991</v>
+        <v>8777</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2015,10 +2015,10 @@
         <v>4</v>
       </c>
       <c r="C117" t="n">
-        <v>8453</v>
+        <v>8252</v>
       </c>
       <c r="D117" t="n">
-        <v>9044</v>
+        <v>8829</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2029,10 +2029,10 @@
         <v>5</v>
       </c>
       <c r="C118" t="n">
-        <v>8529</v>
+        <v>8327</v>
       </c>
       <c r="D118" t="n">
-        <v>9120</v>
+        <v>8904</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2043,10 +2043,10 @@
         <v>6</v>
       </c>
       <c r="C119" t="n">
-        <v>8582</v>
+        <v>8379</v>
       </c>
       <c r="D119" t="n">
-        <v>9173</v>
+        <v>8956</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2057,10 +2057,10 @@
         <v>7</v>
       </c>
       <c r="C120" t="n">
-        <v>8658</v>
+        <v>8454</v>
       </c>
       <c r="D120" t="n">
-        <v>9249</v>
+        <v>9031</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2071,10 +2071,10 @@
         <v>8</v>
       </c>
       <c r="C121" t="n">
-        <v>8711</v>
+        <v>8506</v>
       </c>
       <c r="D121" t="n">
-        <v>9302</v>
+        <v>9083</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2085,10 +2085,10 @@
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>8820</v>
+        <v>8609</v>
       </c>
       <c r="D122" t="n">
-        <v>9408</v>
+        <v>9186</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2099,10 +2099,10 @@
         <v>2</v>
       </c>
       <c r="C123" t="n">
-        <v>8915</v>
+        <v>8702</v>
       </c>
       <c r="D123" t="n">
-        <v>9506</v>
+        <v>9279</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2113,10 +2113,10 @@
         <v>3</v>
       </c>
       <c r="C124" t="n">
-        <v>8991</v>
+        <v>8777</v>
       </c>
       <c r="D124" t="n">
-        <v>9582</v>
+        <v>9354</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2127,10 +2127,10 @@
         <v>4</v>
       </c>
       <c r="C125" t="n">
-        <v>9044</v>
+        <v>8829</v>
       </c>
       <c r="D125" t="n">
-        <v>9635</v>
+        <v>9406</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2141,10 +2141,10 @@
         <v>5</v>
       </c>
       <c r="C126" t="n">
-        <v>9120</v>
+        <v>8904</v>
       </c>
       <c r="D126" t="n">
-        <v>9711</v>
+        <v>9481</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2155,10 +2155,10 @@
         <v>6</v>
       </c>
       <c r="C127" t="n">
-        <v>9173</v>
+        <v>8956</v>
       </c>
       <c r="D127" t="n">
-        <v>9764</v>
+        <v>9533</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2169,10 +2169,10 @@
         <v>7</v>
       </c>
       <c r="C128" t="n">
-        <v>9249</v>
+        <v>9031</v>
       </c>
       <c r="D128" t="n">
-        <v>9840</v>
+        <v>9608</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2183,10 +2183,10 @@
         <v>8</v>
       </c>
       <c r="C129" t="n">
-        <v>9302</v>
+        <v>9083</v>
       </c>
       <c r="D129" t="n">
-        <v>9893</v>
+        <v>9660</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2197,10 +2197,10 @@
         <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>9408</v>
+        <v>9186</v>
       </c>
       <c r="D130" t="n">
-        <v>9996</v>
+        <v>9763</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2211,10 +2211,10 @@
         <v>2</v>
       </c>
       <c r="C131" t="n">
-        <v>9506</v>
+        <v>9279</v>
       </c>
       <c r="D131" t="n">
-        <v>10097</v>
+        <v>9856</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2225,10 +2225,10 @@
         <v>3</v>
       </c>
       <c r="C132" t="n">
-        <v>9582</v>
+        <v>9354</v>
       </c>
       <c r="D132" t="n">
-        <v>10173</v>
+        <v>9931</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2239,10 +2239,10 @@
         <v>4</v>
       </c>
       <c r="C133" t="n">
-        <v>9635</v>
+        <v>9406</v>
       </c>
       <c r="D133" t="n">
-        <v>10226</v>
+        <v>9983</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2253,10 +2253,10 @@
         <v>5</v>
       </c>
       <c r="C134" t="n">
-        <v>9711</v>
+        <v>9481</v>
       </c>
       <c r="D134" t="n">
-        <v>10302</v>
+        <v>10058</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2267,10 +2267,10 @@
         <v>6</v>
       </c>
       <c r="C135" t="n">
-        <v>9764</v>
+        <v>9533</v>
       </c>
       <c r="D135" t="n">
-        <v>10355</v>
+        <v>10110</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2281,10 +2281,10 @@
         <v>7</v>
       </c>
       <c r="C136" t="n">
-        <v>9840</v>
+        <v>9608</v>
       </c>
       <c r="D136" t="n">
-        <v>10431</v>
+        <v>10185</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2295,10 +2295,10 @@
         <v>8</v>
       </c>
       <c r="C137" t="n">
-        <v>9893</v>
+        <v>9660</v>
       </c>
       <c r="D137" t="n">
-        <v>10484</v>
+        <v>10237</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2309,10 +2309,10 @@
         <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>9996</v>
+        <v>9763</v>
       </c>
       <c r="D138" t="n">
-        <v>10586</v>
+        <v>10340</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2323,10 +2323,10 @@
         <v>2</v>
       </c>
       <c r="C139" t="n">
-        <v>10097</v>
+        <v>9856</v>
       </c>
       <c r="D139" t="n">
-        <v>10688</v>
+        <v>10433</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2337,10 +2337,10 @@
         <v>3</v>
       </c>
       <c r="C140" t="n">
-        <v>10173</v>
+        <v>9931</v>
       </c>
       <c r="D140" t="n">
-        <v>10764</v>
+        <v>10508</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2351,10 +2351,10 @@
         <v>4</v>
       </c>
       <c r="C141" t="n">
-        <v>10226</v>
+        <v>9983</v>
       </c>
       <c r="D141" t="n">
-        <v>10817</v>
+        <v>10560</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2365,10 +2365,10 @@
         <v>5</v>
       </c>
       <c r="C142" t="n">
-        <v>10302</v>
+        <v>10058</v>
       </c>
       <c r="D142" t="n">
-        <v>10893</v>
+        <v>10635</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2379,10 +2379,10 @@
         <v>6</v>
       </c>
       <c r="C143" t="n">
-        <v>10355</v>
+        <v>10110</v>
       </c>
       <c r="D143" t="n">
-        <v>10946</v>
+        <v>10687</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2393,10 +2393,10 @@
         <v>7</v>
       </c>
       <c r="C144" t="n">
-        <v>10431</v>
+        <v>10185</v>
       </c>
       <c r="D144" t="n">
-        <v>11022</v>
+        <v>10762</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2407,10 +2407,10 @@
         <v>8</v>
       </c>
       <c r="C145" t="n">
-        <v>10484</v>
+        <v>10237</v>
       </c>
       <c r="D145" t="n">
-        <v>11075</v>
+        <v>10814</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2421,10 +2421,10 @@
         <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>10586</v>
+        <v>10340</v>
       </c>
       <c r="D146" t="n">
-        <v>11177</v>
+        <v>10917</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2435,10 +2435,10 @@
         <v>2</v>
       </c>
       <c r="C147" t="n">
-        <v>10688</v>
+        <v>10433</v>
       </c>
       <c r="D147" t="n">
-        <v>11279</v>
+        <v>11010</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2449,10 +2449,10 @@
         <v>3</v>
       </c>
       <c r="C148" t="n">
-        <v>10764</v>
+        <v>10508</v>
       </c>
       <c r="D148" t="n">
-        <v>11355</v>
+        <v>11085</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2463,10 +2463,10 @@
         <v>4</v>
       </c>
       <c r="C149" t="n">
-        <v>10817</v>
+        <v>10560</v>
       </c>
       <c r="D149" t="n">
-        <v>11408</v>
+        <v>11137</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2477,10 +2477,10 @@
         <v>5</v>
       </c>
       <c r="C150" t="n">
-        <v>10893</v>
+        <v>10635</v>
       </c>
       <c r="D150" t="n">
-        <v>11484</v>
+        <v>11212</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2491,10 +2491,10 @@
         <v>6</v>
       </c>
       <c r="C151" t="n">
-        <v>10946</v>
+        <v>10687</v>
       </c>
       <c r="D151" t="n">
-        <v>11537</v>
+        <v>11264</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2505,10 +2505,10 @@
         <v>7</v>
       </c>
       <c r="C152" t="n">
-        <v>11022</v>
+        <v>10762</v>
       </c>
       <c r="D152" t="n">
-        <v>11613</v>
+        <v>11339</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2519,10 +2519,10 @@
         <v>8</v>
       </c>
       <c r="C153" t="n">
-        <v>11075</v>
+        <v>10814</v>
       </c>
       <c r="D153" t="n">
-        <v>11666</v>
+        <v>11391</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2533,10 +2533,10 @@
         <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>11177</v>
+        <v>10917</v>
       </c>
       <c r="D154" t="n">
-        <v>11768</v>
+        <v>11494</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2547,10 +2547,10 @@
         <v>2</v>
       </c>
       <c r="C155" t="n">
-        <v>11279</v>
+        <v>11010</v>
       </c>
       <c r="D155" t="n">
-        <v>11870</v>
+        <v>11587</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2561,10 +2561,10 @@
         <v>3</v>
       </c>
       <c r="C156" t="n">
-        <v>11355</v>
+        <v>11085</v>
       </c>
       <c r="D156" t="n">
-        <v>11946</v>
+        <v>11662</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2575,10 +2575,10 @@
         <v>4</v>
       </c>
       <c r="C157" t="n">
-        <v>11408</v>
+        <v>11137</v>
       </c>
       <c r="D157" t="n">
-        <v>11999</v>
+        <v>11714</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2589,10 +2589,10 @@
         <v>5</v>
       </c>
       <c r="C158" t="n">
-        <v>11484</v>
+        <v>11212</v>
       </c>
       <c r="D158" t="n">
-        <v>12075</v>
+        <v>11789</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2603,10 +2603,10 @@
         <v>6</v>
       </c>
       <c r="C159" t="n">
-        <v>11537</v>
+        <v>11264</v>
       </c>
       <c r="D159" t="n">
-        <v>12128</v>
+        <v>11841</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2617,10 +2617,10 @@
         <v>7</v>
       </c>
       <c r="C160" t="n">
-        <v>11613</v>
+        <v>11339</v>
       </c>
       <c r="D160" t="n">
-        <v>12204</v>
+        <v>11916</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2631,10 +2631,10 @@
         <v>8</v>
       </c>
       <c r="C161" t="n">
-        <v>11666</v>
+        <v>11391</v>
       </c>
       <c r="D161" t="n">
-        <v>12257</v>
+        <v>11968</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2645,10 +2645,10 @@
         <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>11768</v>
+        <v>11494</v>
       </c>
       <c r="D162" t="n">
-        <v>12359</v>
+        <v>12071</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2659,10 +2659,10 @@
         <v>2</v>
       </c>
       <c r="C163" t="n">
-        <v>11870</v>
+        <v>11587</v>
       </c>
       <c r="D163" t="n">
-        <v>12461</v>
+        <v>12164</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2673,10 +2673,10 @@
         <v>3</v>
       </c>
       <c r="C164" t="n">
-        <v>11946</v>
+        <v>11662</v>
       </c>
       <c r="D164" t="n">
-        <v>12537</v>
+        <v>12239</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2687,10 +2687,10 @@
         <v>4</v>
       </c>
       <c r="C165" t="n">
-        <v>11999</v>
+        <v>11714</v>
       </c>
       <c r="D165" t="n">
-        <v>12590</v>
+        <v>12291</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2701,10 +2701,10 @@
         <v>5</v>
       </c>
       <c r="C166" t="n">
-        <v>12075</v>
+        <v>11789</v>
       </c>
       <c r="D166" t="n">
-        <v>12666</v>
+        <v>12366</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2715,10 +2715,10 @@
         <v>6</v>
       </c>
       <c r="C167" t="n">
-        <v>12128</v>
+        <v>11841</v>
       </c>
       <c r="D167" t="n">
-        <v>12719</v>
+        <v>12418</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2729,10 +2729,10 @@
         <v>7</v>
       </c>
       <c r="C168" t="n">
-        <v>12204</v>
+        <v>11916</v>
       </c>
       <c r="D168" t="n">
-        <v>12795</v>
+        <v>12493</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2743,10 +2743,10 @@
         <v>8</v>
       </c>
       <c r="C169" t="n">
-        <v>12257</v>
+        <v>11968</v>
       </c>
       <c r="D169" t="n">
-        <v>12848</v>
+        <v>12545</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2757,10 +2757,10 @@
         <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>12359</v>
+        <v>12071</v>
       </c>
       <c r="D170" t="n">
-        <v>12950</v>
+        <v>12648</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2771,10 +2771,10 @@
         <v>2</v>
       </c>
       <c r="C171" t="n">
-        <v>12461</v>
+        <v>12164</v>
       </c>
       <c r="D171" t="n">
-        <v>13052</v>
+        <v>12741</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2785,10 +2785,10 @@
         <v>3</v>
       </c>
       <c r="C172" t="n">
-        <v>12537</v>
+        <v>12239</v>
       </c>
       <c r="D172" t="n">
-        <v>13128</v>
+        <v>12816</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2799,10 +2799,10 @@
         <v>4</v>
       </c>
       <c r="C173" t="n">
-        <v>12590</v>
+        <v>12291</v>
       </c>
       <c r="D173" t="n">
-        <v>13181</v>
+        <v>12868</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2813,10 +2813,10 @@
         <v>5</v>
       </c>
       <c r="C174" t="n">
-        <v>12666</v>
+        <v>12366</v>
       </c>
       <c r="D174" t="n">
-        <v>13257</v>
+        <v>12943</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2827,10 +2827,10 @@
         <v>6</v>
       </c>
       <c r="C175" t="n">
-        <v>12719</v>
+        <v>12418</v>
       </c>
       <c r="D175" t="n">
-        <v>13310</v>
+        <v>12995</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2841,10 +2841,10 @@
         <v>7</v>
       </c>
       <c r="C176" t="n">
-        <v>12795</v>
+        <v>12493</v>
       </c>
       <c r="D176" t="n">
-        <v>13386</v>
+        <v>13070</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2855,10 +2855,10 @@
         <v>8</v>
       </c>
       <c r="C177" t="n">
-        <v>12848</v>
+        <v>12545</v>
       </c>
       <c r="D177" t="n">
-        <v>13439</v>
+        <v>13122</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2869,10 +2869,10 @@
         <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>12950</v>
+        <v>12648</v>
       </c>
       <c r="D178" t="n">
-        <v>13541</v>
+        <v>13225</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2883,10 +2883,10 @@
         <v>2</v>
       </c>
       <c r="C179" t="n">
-        <v>13052</v>
+        <v>12741</v>
       </c>
       <c r="D179" t="n">
-        <v>13643</v>
+        <v>13318</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2897,10 +2897,10 @@
         <v>3</v>
       </c>
       <c r="C180" t="n">
-        <v>13128</v>
+        <v>12816</v>
       </c>
       <c r="D180" t="n">
-        <v>13719</v>
+        <v>13393</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2911,10 +2911,10 @@
         <v>4</v>
       </c>
       <c r="C181" t="n">
-        <v>13181</v>
+        <v>12868</v>
       </c>
       <c r="D181" t="n">
-        <v>13772</v>
+        <v>13445</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2925,10 +2925,10 @@
         <v>5</v>
       </c>
       <c r="C182" t="n">
-        <v>13257</v>
+        <v>12943</v>
       </c>
       <c r="D182" t="n">
-        <v>13848</v>
+        <v>13520</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2939,10 +2939,10 @@
         <v>6</v>
       </c>
       <c r="C183" t="n">
-        <v>13310</v>
+        <v>12995</v>
       </c>
       <c r="D183" t="n">
-        <v>13901</v>
+        <v>13572</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2953,10 +2953,10 @@
         <v>7</v>
       </c>
       <c r="C184" t="n">
-        <v>13386</v>
+        <v>13070</v>
       </c>
       <c r="D184" t="n">
-        <v>13977</v>
+        <v>13647</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2967,10 +2967,10 @@
         <v>8</v>
       </c>
       <c r="C185" t="n">
-        <v>13439</v>
+        <v>13122</v>
       </c>
       <c r="D185" t="n">
-        <v>14030</v>
+        <v>13699</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2981,10 +2981,10 @@
         <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>13541</v>
+        <v>13225</v>
       </c>
       <c r="D186" t="n">
-        <v>14132</v>
+        <v>13802</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -2995,10 +2995,10 @@
         <v>2</v>
       </c>
       <c r="C187" t="n">
-        <v>13643</v>
+        <v>13318</v>
       </c>
       <c r="D187" t="n">
-        <v>14234</v>
+        <v>13895</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3009,10 +3009,10 @@
         <v>3</v>
       </c>
       <c r="C188" t="n">
-        <v>13719</v>
+        <v>13393</v>
       </c>
       <c r="D188" t="n">
-        <v>14310</v>
+        <v>13970</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3023,10 +3023,10 @@
         <v>4</v>
       </c>
       <c r="C189" t="n">
-        <v>13772</v>
+        <v>13445</v>
       </c>
       <c r="D189" t="n">
-        <v>14363</v>
+        <v>14022</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3037,10 +3037,10 @@
         <v>5</v>
       </c>
       <c r="C190" t="n">
-        <v>13848</v>
+        <v>13520</v>
       </c>
       <c r="D190" t="n">
-        <v>14439</v>
+        <v>14097</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3051,10 +3051,10 @@
         <v>6</v>
       </c>
       <c r="C191" t="n">
-        <v>13901</v>
+        <v>13572</v>
       </c>
       <c r="D191" t="n">
-        <v>14492</v>
+        <v>14149</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3065,10 +3065,10 @@
         <v>7</v>
       </c>
       <c r="C192" t="n">
-        <v>13977</v>
+        <v>13647</v>
       </c>
       <c r="D192" t="n">
-        <v>14568</v>
+        <v>14224</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3079,10 +3079,10 @@
         <v>8</v>
       </c>
       <c r="C193" t="n">
-        <v>14030</v>
+        <v>13699</v>
       </c>
       <c r="D193" t="n">
-        <v>14621</v>
+        <v>14276</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3093,10 +3093,10 @@
         <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>14132</v>
+        <v>13802</v>
       </c>
       <c r="D194" t="n">
-        <v>14723</v>
+        <v>14379</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3107,10 +3107,10 @@
         <v>2</v>
       </c>
       <c r="C195" t="n">
-        <v>14234</v>
+        <v>13895</v>
       </c>
       <c r="D195" t="n">
-        <v>14825</v>
+        <v>14472</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3121,10 +3121,10 @@
         <v>3</v>
       </c>
       <c r="C196" t="n">
-        <v>14310</v>
+        <v>13970</v>
       </c>
       <c r="D196" t="n">
-        <v>14901</v>
+        <v>14547</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3135,10 +3135,10 @@
         <v>4</v>
       </c>
       <c r="C197" t="n">
-        <v>14363</v>
+        <v>14022</v>
       </c>
       <c r="D197" t="n">
-        <v>14954</v>
+        <v>14599</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3149,10 +3149,10 @@
         <v>5</v>
       </c>
       <c r="C198" t="n">
-        <v>14439</v>
+        <v>14097</v>
       </c>
       <c r="D198" t="n">
-        <v>15030</v>
+        <v>14674</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3163,10 +3163,10 @@
         <v>6</v>
       </c>
       <c r="C199" t="n">
-        <v>14492</v>
+        <v>14149</v>
       </c>
       <c r="D199" t="n">
-        <v>15083</v>
+        <v>14726</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3177,10 +3177,10 @@
         <v>7</v>
       </c>
       <c r="C200" t="n">
-        <v>14568</v>
+        <v>14224</v>
       </c>
       <c r="D200" t="n">
-        <v>15159</v>
+        <v>14801</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3191,10 +3191,10 @@
         <v>8</v>
       </c>
       <c r="C201" t="n">
-        <v>14621</v>
+        <v>14276</v>
       </c>
       <c r="D201" t="n">
-        <v>15212</v>
+        <v>14853</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3205,10 +3205,10 @@
         <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>14723</v>
+        <v>14379</v>
       </c>
       <c r="D202" t="n">
-        <v>15314</v>
+        <v>14956</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3219,10 +3219,10 @@
         <v>2</v>
       </c>
       <c r="C203" t="n">
-        <v>14825</v>
+        <v>14472</v>
       </c>
       <c r="D203" t="n">
-        <v>15416</v>
+        <v>15049</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3233,10 +3233,10 @@
         <v>3</v>
       </c>
       <c r="C204" t="n">
-        <v>14901</v>
+        <v>14547</v>
       </c>
       <c r="D204" t="n">
-        <v>15492</v>
+        <v>15124</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3247,10 +3247,10 @@
         <v>4</v>
       </c>
       <c r="C205" t="n">
-        <v>14954</v>
+        <v>14599</v>
       </c>
       <c r="D205" t="n">
-        <v>15545</v>
+        <v>15176</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3261,10 +3261,10 @@
         <v>5</v>
       </c>
       <c r="C206" t="n">
-        <v>15030</v>
+        <v>14674</v>
       </c>
       <c r="D206" t="n">
-        <v>15621</v>
+        <v>15251</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3275,10 +3275,10 @@
         <v>6</v>
       </c>
       <c r="C207" t="n">
-        <v>15083</v>
+        <v>14726</v>
       </c>
       <c r="D207" t="n">
-        <v>15674</v>
+        <v>15303</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3289,10 +3289,10 @@
         <v>7</v>
       </c>
       <c r="C208" t="n">
-        <v>15159</v>
+        <v>14801</v>
       </c>
       <c r="D208" t="n">
-        <v>15750</v>
+        <v>15378</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3303,10 +3303,10 @@
         <v>8</v>
       </c>
       <c r="C209" t="n">
-        <v>15212</v>
+        <v>14853</v>
       </c>
       <c r="D209" t="n">
-        <v>15803</v>
+        <v>15430</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3317,10 +3317,10 @@
         <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>15314</v>
+        <v>14956</v>
       </c>
       <c r="D210" t="n">
-        <v>15905</v>
+        <v>15533</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3331,10 +3331,10 @@
         <v>2</v>
       </c>
       <c r="C211" t="n">
-        <v>15416</v>
+        <v>15049</v>
       </c>
       <c r="D211" t="n">
-        <v>16007</v>
+        <v>15626</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3345,10 +3345,10 @@
         <v>3</v>
       </c>
       <c r="C212" t="n">
-        <v>15492</v>
+        <v>15124</v>
       </c>
       <c r="D212" t="n">
-        <v>16083</v>
+        <v>15701</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3359,10 +3359,10 @@
         <v>4</v>
       </c>
       <c r="C213" t="n">
-        <v>15545</v>
+        <v>15176</v>
       </c>
       <c r="D213" t="n">
-        <v>16136</v>
+        <v>15753</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3373,10 +3373,10 @@
         <v>5</v>
       </c>
       <c r="C214" t="n">
-        <v>15621</v>
+        <v>15251</v>
       </c>
       <c r="D214" t="n">
-        <v>16212</v>
+        <v>15828</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3387,10 +3387,10 @@
         <v>6</v>
       </c>
       <c r="C215" t="n">
-        <v>15674</v>
+        <v>15303</v>
       </c>
       <c r="D215" t="n">
-        <v>16265</v>
+        <v>15880</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3401,10 +3401,10 @@
         <v>7</v>
       </c>
       <c r="C216" t="n">
-        <v>15750</v>
+        <v>15378</v>
       </c>
       <c r="D216" t="n">
-        <v>16341</v>
+        <v>15955</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3415,10 +3415,10 @@
         <v>8</v>
       </c>
       <c r="C217" t="n">
-        <v>15803</v>
+        <v>15430</v>
       </c>
       <c r="D217" t="n">
-        <v>16394</v>
+        <v>16007</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3429,10 +3429,10 @@
         <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>15905</v>
+        <v>15533</v>
       </c>
       <c r="D218" t="n">
-        <v>16496</v>
+        <v>16110</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3443,10 +3443,10 @@
         <v>2</v>
       </c>
       <c r="C219" t="n">
-        <v>16007</v>
+        <v>15626</v>
       </c>
       <c r="D219" t="n">
-        <v>16598</v>
+        <v>16203</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3457,10 +3457,10 @@
         <v>3</v>
       </c>
       <c r="C220" t="n">
-        <v>16083</v>
+        <v>15701</v>
       </c>
       <c r="D220" t="n">
-        <v>16674</v>
+        <v>16278</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3471,10 +3471,10 @@
         <v>4</v>
       </c>
       <c r="C221" t="n">
-        <v>16136</v>
+        <v>15753</v>
       </c>
       <c r="D221" t="n">
-        <v>16727</v>
+        <v>16330</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3485,10 +3485,10 @@
         <v>5</v>
       </c>
       <c r="C222" t="n">
-        <v>16212</v>
+        <v>15828</v>
       </c>
       <c r="D222" t="n">
-        <v>16803</v>
+        <v>16405</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3499,10 +3499,10 @@
         <v>6</v>
       </c>
       <c r="C223" t="n">
-        <v>16265</v>
+        <v>15880</v>
       </c>
       <c r="D223" t="n">
-        <v>16856</v>
+        <v>16457</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3513,10 +3513,10 @@
         <v>7</v>
       </c>
       <c r="C224" t="n">
-        <v>16341</v>
+        <v>15955</v>
       </c>
       <c r="D224" t="n">
-        <v>16932</v>
+        <v>16532</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3527,10 +3527,10 @@
         <v>8</v>
       </c>
       <c r="C225" t="n">
-        <v>16394</v>
+        <v>16007</v>
       </c>
       <c r="D225" t="n">
-        <v>16985</v>
+        <v>16584</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3541,10 +3541,10 @@
         <v>1</v>
       </c>
       <c r="C226" t="n">
-        <v>16496</v>
+        <v>16110</v>
       </c>
       <c r="D226" t="n">
-        <v>17087</v>
+        <v>16687</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3555,10 +3555,10 @@
         <v>2</v>
       </c>
       <c r="C227" t="n">
-        <v>16598</v>
+        <v>16203</v>
       </c>
       <c r="D227" t="n">
-        <v>17189</v>
+        <v>16780</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3569,10 +3569,10 @@
         <v>3</v>
       </c>
       <c r="C228" t="n">
-        <v>16674</v>
+        <v>16278</v>
       </c>
       <c r="D228" t="n">
-        <v>17265</v>
+        <v>16855</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3583,10 +3583,10 @@
         <v>4</v>
       </c>
       <c r="C229" t="n">
-        <v>16727</v>
+        <v>16330</v>
       </c>
       <c r="D229" t="n">
-        <v>17318</v>
+        <v>16907</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3597,10 +3597,10 @@
         <v>5</v>
       </c>
       <c r="C230" t="n">
-        <v>16803</v>
+        <v>16405</v>
       </c>
       <c r="D230" t="n">
-        <v>17394</v>
+        <v>16982</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3611,10 +3611,10 @@
         <v>6</v>
       </c>
       <c r="C231" t="n">
-        <v>16856</v>
+        <v>16457</v>
       </c>
       <c r="D231" t="n">
-        <v>17447</v>
+        <v>17034</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3625,10 +3625,10 @@
         <v>7</v>
       </c>
       <c r="C232" t="n">
-        <v>16932</v>
+        <v>16532</v>
       </c>
       <c r="D232" t="n">
-        <v>17523</v>
+        <v>17109</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3639,10 +3639,10 @@
         <v>8</v>
       </c>
       <c r="C233" t="n">
-        <v>16985</v>
+        <v>16584</v>
       </c>
       <c r="D233" t="n">
-        <v>17576</v>
+        <v>17161</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3653,10 +3653,10 @@
         <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>17087</v>
+        <v>16687</v>
       </c>
       <c r="D234" t="n">
-        <v>17678</v>
+        <v>17264</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3667,10 +3667,10 @@
         <v>2</v>
       </c>
       <c r="C235" t="n">
-        <v>17189</v>
+        <v>16780</v>
       </c>
       <c r="D235" t="n">
-        <v>17780</v>
+        <v>17357</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3681,10 +3681,10 @@
         <v>3</v>
       </c>
       <c r="C236" t="n">
-        <v>17265</v>
+        <v>16855</v>
       </c>
       <c r="D236" t="n">
-        <v>17856</v>
+        <v>17432</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3695,10 +3695,10 @@
         <v>4</v>
       </c>
       <c r="C237" t="n">
-        <v>17318</v>
+        <v>16907</v>
       </c>
       <c r="D237" t="n">
-        <v>17909</v>
+        <v>17484</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3709,10 +3709,10 @@
         <v>5</v>
       </c>
       <c r="C238" t="n">
-        <v>17394</v>
+        <v>16982</v>
       </c>
       <c r="D238" t="n">
-        <v>17985</v>
+        <v>17559</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3723,10 +3723,10 @@
         <v>6</v>
       </c>
       <c r="C239" t="n">
-        <v>17447</v>
+        <v>17034</v>
       </c>
       <c r="D239" t="n">
-        <v>18038</v>
+        <v>17611</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3737,10 +3737,10 @@
         <v>7</v>
       </c>
       <c r="C240" t="n">
-        <v>17523</v>
+        <v>17109</v>
       </c>
       <c r="D240" t="n">
-        <v>18114</v>
+        <v>17686</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3751,10 +3751,10 @@
         <v>8</v>
       </c>
       <c r="C241" t="n">
-        <v>17576</v>
+        <v>17161</v>
       </c>
       <c r="D241" t="n">
-        <v>18167</v>
+        <v>17738</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3765,10 +3765,10 @@
         <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>17678</v>
+        <v>17264</v>
       </c>
       <c r="D242" t="n">
-        <v>18269</v>
+        <v>17841</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3779,10 +3779,10 @@
         <v>2</v>
       </c>
       <c r="C243" t="n">
-        <v>17780</v>
+        <v>17357</v>
       </c>
       <c r="D243" t="n">
-        <v>18371</v>
+        <v>17934</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3793,10 +3793,10 @@
         <v>3</v>
       </c>
       <c r="C244" t="n">
-        <v>17856</v>
+        <v>17432</v>
       </c>
       <c r="D244" t="n">
-        <v>18447</v>
+        <v>18009</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3807,10 +3807,10 @@
         <v>4</v>
       </c>
       <c r="C245" t="n">
-        <v>17909</v>
+        <v>17484</v>
       </c>
       <c r="D245" t="n">
-        <v>18500</v>
+        <v>18061</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3821,10 +3821,10 @@
         <v>5</v>
       </c>
       <c r="C246" t="n">
-        <v>17985</v>
+        <v>17559</v>
       </c>
       <c r="D246" t="n">
-        <v>18576</v>
+        <v>18136</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3835,10 +3835,10 @@
         <v>6</v>
       </c>
       <c r="C247" t="n">
-        <v>18038</v>
+        <v>17611</v>
       </c>
       <c r="D247" t="n">
-        <v>18629</v>
+        <v>18188</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3849,10 +3849,10 @@
         <v>7</v>
       </c>
       <c r="C248" t="n">
-        <v>18114</v>
+        <v>17686</v>
       </c>
       <c r="D248" t="n">
-        <v>18705</v>
+        <v>18263</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3863,10 +3863,10 @@
         <v>8</v>
       </c>
       <c r="C249" t="n">
-        <v>18167</v>
+        <v>17738</v>
       </c>
       <c r="D249" t="n">
-        <v>18758</v>
+        <v>18315</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3877,10 +3877,10 @@
         <v>1</v>
       </c>
       <c r="C250" t="n">
-        <v>18269</v>
+        <v>17841</v>
       </c>
       <c r="D250" t="n">
-        <v>18860</v>
+        <v>18418</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3891,10 +3891,10 @@
         <v>2</v>
       </c>
       <c r="C251" t="n">
-        <v>18371</v>
+        <v>17934</v>
       </c>
       <c r="D251" t="n">
-        <v>18962</v>
+        <v>18511</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3905,10 +3905,10 @@
         <v>3</v>
       </c>
       <c r="C252" t="n">
-        <v>18447</v>
+        <v>18009</v>
       </c>
       <c r="D252" t="n">
-        <v>19038</v>
+        <v>18586</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3919,10 +3919,10 @@
         <v>4</v>
       </c>
       <c r="C253" t="n">
-        <v>18500</v>
+        <v>18061</v>
       </c>
       <c r="D253" t="n">
-        <v>19091</v>
+        <v>18638</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3933,10 +3933,10 @@
         <v>5</v>
       </c>
       <c r="C254" t="n">
-        <v>18576</v>
+        <v>18136</v>
       </c>
       <c r="D254" t="n">
-        <v>19167</v>
+        <v>18713</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3947,10 +3947,10 @@
         <v>6</v>
       </c>
       <c r="C255" t="n">
-        <v>18629</v>
+        <v>18188</v>
       </c>
       <c r="D255" t="n">
-        <v>19220</v>
+        <v>18765</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3961,10 +3961,10 @@
         <v>7</v>
       </c>
       <c r="C256" t="n">
-        <v>18705</v>
+        <v>18263</v>
       </c>
       <c r="D256" t="n">
-        <v>19296</v>
+        <v>18840</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -3975,10 +3975,10 @@
         <v>8</v>
       </c>
       <c r="C257" t="n">
-        <v>18758</v>
+        <v>18315</v>
       </c>
       <c r="D257" t="n">
-        <v>19349</v>
+        <v>18892</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -3989,10 +3989,10 @@
         <v>1</v>
       </c>
       <c r="C258" t="n">
-        <v>18860</v>
+        <v>18418</v>
       </c>
       <c r="D258" t="n">
-        <v>19451</v>
+        <v>18995</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="C259" t="n">
-        <v>18962</v>
+        <v>18511</v>
       </c>
       <c r="D259" t="n">
-        <v>19553</v>
+        <v>19088</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4017,10 +4017,10 @@
         <v>3</v>
       </c>
       <c r="C260" t="n">
-        <v>19038</v>
+        <v>18586</v>
       </c>
       <c r="D260" t="n">
-        <v>19629</v>
+        <v>19163</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4031,10 +4031,10 @@
         <v>4</v>
       </c>
       <c r="C261" t="n">
-        <v>19091</v>
+        <v>18638</v>
       </c>
       <c r="D261" t="n">
-        <v>19682</v>
+        <v>19215</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4045,10 +4045,10 @@
         <v>5</v>
       </c>
       <c r="C262" t="n">
-        <v>19167</v>
+        <v>18713</v>
       </c>
       <c r="D262" t="n">
-        <v>19758</v>
+        <v>19290</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4059,10 +4059,10 @@
         <v>6</v>
       </c>
       <c r="C263" t="n">
-        <v>19220</v>
+        <v>18765</v>
       </c>
       <c r="D263" t="n">
-        <v>19811</v>
+        <v>19342</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4073,10 +4073,10 @@
         <v>7</v>
       </c>
       <c r="C264" t="n">
-        <v>19296</v>
+        <v>18840</v>
       </c>
       <c r="D264" t="n">
-        <v>19887</v>
+        <v>19417</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4087,10 +4087,10 @@
         <v>8</v>
       </c>
       <c r="C265" t="n">
-        <v>19349</v>
+        <v>18892</v>
       </c>
       <c r="D265" t="n">
-        <v>19940</v>
+        <v>19469</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4101,10 +4101,10 @@
         <v>1</v>
       </c>
       <c r="C266" t="n">
-        <v>19451</v>
+        <v>18995</v>
       </c>
       <c r="D266" t="n">
-        <v>20042</v>
+        <v>19572</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4115,10 +4115,10 @@
         <v>2</v>
       </c>
       <c r="C267" t="n">
-        <v>19553</v>
+        <v>19088</v>
       </c>
       <c r="D267" t="n">
-        <v>20144</v>
+        <v>19665</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4129,10 +4129,10 @@
         <v>3</v>
       </c>
       <c r="C268" t="n">
-        <v>19629</v>
+        <v>19163</v>
       </c>
       <c r="D268" t="n">
-        <v>20220</v>
+        <v>19740</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4143,10 +4143,10 @@
         <v>4</v>
       </c>
       <c r="C269" t="n">
-        <v>19682</v>
+        <v>19215</v>
       </c>
       <c r="D269" t="n">
-        <v>20273</v>
+        <v>19792</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4157,10 +4157,10 @@
         <v>5</v>
       </c>
       <c r="C270" t="n">
-        <v>19758</v>
+        <v>19290</v>
       </c>
       <c r="D270" t="n">
-        <v>20349</v>
+        <v>19867</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4171,10 +4171,10 @@
         <v>6</v>
       </c>
       <c r="C271" t="n">
-        <v>19811</v>
+        <v>19342</v>
       </c>
       <c r="D271" t="n">
-        <v>20402</v>
+        <v>19919</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4185,10 +4185,10 @@
         <v>7</v>
       </c>
       <c r="C272" t="n">
-        <v>19887</v>
+        <v>19417</v>
       </c>
       <c r="D272" t="n">
-        <v>20478</v>
+        <v>19994</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4199,10 +4199,10 @@
         <v>8</v>
       </c>
       <c r="C273" t="n">
-        <v>19940</v>
+        <v>19469</v>
       </c>
       <c r="D273" t="n">
-        <v>20531</v>
+        <v>20046</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4213,10 +4213,10 @@
         <v>1</v>
       </c>
       <c r="C274" t="n">
-        <v>20042</v>
+        <v>19572</v>
       </c>
       <c r="D274" t="n">
-        <v>20633</v>
+        <v>20149</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4227,10 +4227,10 @@
         <v>2</v>
       </c>
       <c r="C275" t="n">
-        <v>20144</v>
+        <v>19665</v>
       </c>
       <c r="D275" t="n">
-        <v>20735</v>
+        <v>20242</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4241,10 +4241,10 @@
         <v>3</v>
       </c>
       <c r="C276" t="n">
-        <v>20220</v>
+        <v>19740</v>
       </c>
       <c r="D276" t="n">
-        <v>20811</v>
+        <v>20317</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4255,10 +4255,10 @@
         <v>4</v>
       </c>
       <c r="C277" t="n">
-        <v>20273</v>
+        <v>19792</v>
       </c>
       <c r="D277" t="n">
-        <v>20864</v>
+        <v>20369</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4269,10 +4269,10 @@
         <v>5</v>
       </c>
       <c r="C278" t="n">
-        <v>20349</v>
+        <v>19867</v>
       </c>
       <c r="D278" t="n">
-        <v>20940</v>
+        <v>20444</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4283,10 +4283,10 @@
         <v>6</v>
       </c>
       <c r="C279" t="n">
-        <v>20402</v>
+        <v>19919</v>
       </c>
       <c r="D279" t="n">
-        <v>20993</v>
+        <v>20496</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4297,10 +4297,10 @@
         <v>7</v>
       </c>
       <c r="C280" t="n">
-        <v>20478</v>
+        <v>19994</v>
       </c>
       <c r="D280" t="n">
-        <v>21069</v>
+        <v>20571</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4311,10 +4311,10 @@
         <v>8</v>
       </c>
       <c r="C281" t="n">
-        <v>20531</v>
+        <v>20046</v>
       </c>
       <c r="D281" t="n">
-        <v>21122</v>
+        <v>20623</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4325,10 +4325,10 @@
         <v>1</v>
       </c>
       <c r="C282" t="n">
-        <v>20633</v>
+        <v>20149</v>
       </c>
       <c r="D282" t="n">
-        <v>21224</v>
+        <v>20726</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4339,10 +4339,10 @@
         <v>2</v>
       </c>
       <c r="C283" t="n">
-        <v>20735</v>
+        <v>20242</v>
       </c>
       <c r="D283" t="n">
-        <v>21326</v>
+        <v>20819</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4353,10 +4353,10 @@
         <v>3</v>
       </c>
       <c r="C284" t="n">
-        <v>20811</v>
+        <v>20317</v>
       </c>
       <c r="D284" t="n">
-        <v>21402</v>
+        <v>20894</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4367,10 +4367,10 @@
         <v>4</v>
       </c>
       <c r="C285" t="n">
-        <v>20864</v>
+        <v>20369</v>
       </c>
       <c r="D285" t="n">
-        <v>21455</v>
+        <v>20946</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4381,10 +4381,10 @@
         <v>5</v>
       </c>
       <c r="C286" t="n">
-        <v>20940</v>
+        <v>20444</v>
       </c>
       <c r="D286" t="n">
-        <v>21531</v>
+        <v>21021</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4395,10 +4395,10 @@
         <v>6</v>
       </c>
       <c r="C287" t="n">
-        <v>20993</v>
+        <v>20496</v>
       </c>
       <c r="D287" t="n">
-        <v>21584</v>
+        <v>21073</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4409,10 +4409,10 @@
         <v>7</v>
       </c>
       <c r="C288" t="n">
-        <v>21069</v>
+        <v>20571</v>
       </c>
       <c r="D288" t="n">
-        <v>21660</v>
+        <v>21148</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4423,10 +4423,10 @@
         <v>8</v>
       </c>
       <c r="C289" t="n">
-        <v>21122</v>
+        <v>20623</v>
       </c>
       <c r="D289" t="n">
-        <v>21713</v>
+        <v>21200</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4437,10 +4437,10 @@
         <v>1</v>
       </c>
       <c r="C290" t="n">
-        <v>21224</v>
+        <v>20726</v>
       </c>
       <c r="D290" t="n">
-        <v>21815</v>
+        <v>21303</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4451,10 +4451,10 @@
         <v>2</v>
       </c>
       <c r="C291" t="n">
-        <v>21326</v>
+        <v>20819</v>
       </c>
       <c r="D291" t="n">
-        <v>21917</v>
+        <v>21396</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4465,10 +4465,10 @@
         <v>3</v>
       </c>
       <c r="C292" t="n">
-        <v>21402</v>
+        <v>20894</v>
       </c>
       <c r="D292" t="n">
-        <v>21993</v>
+        <v>21471</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4479,10 +4479,10 @@
         <v>4</v>
       </c>
       <c r="C293" t="n">
-        <v>21455</v>
+        <v>20946</v>
       </c>
       <c r="D293" t="n">
-        <v>22046</v>
+        <v>21523</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4493,10 +4493,10 @@
         <v>5</v>
       </c>
       <c r="C294" t="n">
-        <v>21531</v>
+        <v>21021</v>
       </c>
       <c r="D294" t="n">
-        <v>22122</v>
+        <v>21598</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4507,10 +4507,10 @@
         <v>6</v>
       </c>
       <c r="C295" t="n">
-        <v>21584</v>
+        <v>21073</v>
       </c>
       <c r="D295" t="n">
-        <v>22175</v>
+        <v>21650</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4521,10 +4521,10 @@
         <v>7</v>
       </c>
       <c r="C296" t="n">
-        <v>21660</v>
+        <v>21148</v>
       </c>
       <c r="D296" t="n">
-        <v>22251</v>
+        <v>21725</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4535,10 +4535,10 @@
         <v>8</v>
       </c>
       <c r="C297" t="n">
-        <v>21713</v>
+        <v>21200</v>
       </c>
       <c r="D297" t="n">
-        <v>22304</v>
+        <v>21777</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4549,10 +4549,10 @@
         <v>1</v>
       </c>
       <c r="C298" t="n">
-        <v>21815</v>
+        <v>21303</v>
       </c>
       <c r="D298" t="n">
-        <v>22406</v>
+        <v>21880</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="C299" t="n">
-        <v>21917</v>
+        <v>21396</v>
       </c>
       <c r="D299" t="n">
-        <v>22508</v>
+        <v>21973</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4577,10 +4577,10 @@
         <v>3</v>
       </c>
       <c r="C300" t="n">
-        <v>21993</v>
+        <v>21471</v>
       </c>
       <c r="D300" t="n">
-        <v>22584</v>
+        <v>22048</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4591,10 +4591,10 @@
         <v>4</v>
       </c>
       <c r="C301" t="n">
-        <v>22046</v>
+        <v>21523</v>
       </c>
       <c r="D301" t="n">
-        <v>22637</v>
+        <v>22100</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4605,10 +4605,10 @@
         <v>5</v>
       </c>
       <c r="C302" t="n">
-        <v>22122</v>
+        <v>21598</v>
       </c>
       <c r="D302" t="n">
-        <v>22713</v>
+        <v>22175</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4619,10 +4619,10 @@
         <v>6</v>
       </c>
       <c r="C303" t="n">
-        <v>22175</v>
+        <v>21650</v>
       </c>
       <c r="D303" t="n">
-        <v>22766</v>
+        <v>22227</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4633,10 +4633,10 @@
         <v>7</v>
       </c>
       <c r="C304" t="n">
-        <v>22251</v>
+        <v>21725</v>
       </c>
       <c r="D304" t="n">
-        <v>22842</v>
+        <v>22302</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4647,10 +4647,10 @@
         <v>8</v>
       </c>
       <c r="C305" t="n">
-        <v>22304</v>
+        <v>21777</v>
       </c>
       <c r="D305" t="n">
-        <v>22895</v>
+        <v>22354</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4661,10 +4661,10 @@
         <v>1</v>
       </c>
       <c r="C306" t="n">
-        <v>22406</v>
+        <v>21880</v>
       </c>
       <c r="D306" t="n">
-        <v>22997</v>
+        <v>22457</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4675,10 +4675,10 @@
         <v>2</v>
       </c>
       <c r="C307" t="n">
-        <v>22508</v>
+        <v>21973</v>
       </c>
       <c r="D307" t="n">
-        <v>23099</v>
+        <v>22550</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4689,10 +4689,10 @@
         <v>3</v>
       </c>
       <c r="C308" t="n">
-        <v>22584</v>
+        <v>22048</v>
       </c>
       <c r="D308" t="n">
-        <v>23175</v>
+        <v>22625</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4703,10 +4703,10 @@
         <v>4</v>
       </c>
       <c r="C309" t="n">
-        <v>22637</v>
+        <v>22100</v>
       </c>
       <c r="D309" t="n">
-        <v>23228</v>
+        <v>22677</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4717,10 +4717,10 @@
         <v>5</v>
       </c>
       <c r="C310" t="n">
-        <v>22713</v>
+        <v>22175</v>
       </c>
       <c r="D310" t="n">
-        <v>23304</v>
+        <v>22752</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4731,10 +4731,10 @@
         <v>6</v>
       </c>
       <c r="C311" t="n">
-        <v>22766</v>
+        <v>22227</v>
       </c>
       <c r="D311" t="n">
-        <v>23357</v>
+        <v>22804</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4745,10 +4745,10 @@
         <v>7</v>
       </c>
       <c r="C312" t="n">
-        <v>22842</v>
+        <v>22302</v>
       </c>
       <c r="D312" t="n">
-        <v>23433</v>
+        <v>22879</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4759,10 +4759,10 @@
         <v>8</v>
       </c>
       <c r="C313" t="n">
-        <v>22895</v>
+        <v>22354</v>
       </c>
       <c r="D313" t="n">
-        <v>23486</v>
+        <v>22931</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4773,10 +4773,10 @@
         <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>22997</v>
+        <v>22457</v>
       </c>
       <c r="D314" t="n">
-        <v>23588</v>
+        <v>23034</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4787,10 +4787,10 @@
         <v>2</v>
       </c>
       <c r="C315" t="n">
-        <v>23099</v>
+        <v>22550</v>
       </c>
       <c r="D315" t="n">
-        <v>23690</v>
+        <v>23127</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4801,10 +4801,10 @@
         <v>3</v>
       </c>
       <c r="C316" t="n">
-        <v>23175</v>
+        <v>22625</v>
       </c>
       <c r="D316" t="n">
-        <v>23766</v>
+        <v>23202</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4815,10 +4815,10 @@
         <v>4</v>
       </c>
       <c r="C317" t="n">
-        <v>23228</v>
+        <v>22677</v>
       </c>
       <c r="D317" t="n">
-        <v>23819</v>
+        <v>23254</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4829,10 +4829,10 @@
         <v>5</v>
       </c>
       <c r="C318" t="n">
-        <v>23304</v>
+        <v>22752</v>
       </c>
       <c r="D318" t="n">
-        <v>23895</v>
+        <v>23329</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4843,10 +4843,10 @@
         <v>6</v>
       </c>
       <c r="C319" t="n">
-        <v>23357</v>
+        <v>22804</v>
       </c>
       <c r="D319" t="n">
-        <v>23948</v>
+        <v>23381</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4857,10 +4857,10 @@
         <v>7</v>
       </c>
       <c r="C320" t="n">
-        <v>23433</v>
+        <v>22879</v>
       </c>
       <c r="D320" t="n">
-        <v>24024</v>
+        <v>23456</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4871,10 +4871,10 @@
         <v>8</v>
       </c>
       <c r="C321" t="n">
-        <v>23486</v>
+        <v>22931</v>
       </c>
       <c r="D321" t="n">
-        <v>24077</v>
+        <v>23508</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4885,10 +4885,10 @@
         <v>1</v>
       </c>
       <c r="C322" t="n">
-        <v>23588</v>
+        <v>23034</v>
       </c>
       <c r="D322" t="n">
-        <v>24179</v>
+        <v>23611</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4899,10 +4899,10 @@
         <v>2</v>
       </c>
       <c r="C323" t="n">
-        <v>23690</v>
+        <v>23127</v>
       </c>
       <c r="D323" t="n">
-        <v>24281</v>
+        <v>23704</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4913,10 +4913,10 @@
         <v>3</v>
       </c>
       <c r="C324" t="n">
-        <v>23766</v>
+        <v>23202</v>
       </c>
       <c r="D324" t="n">
-        <v>24357</v>
+        <v>23779</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4927,10 +4927,10 @@
         <v>4</v>
       </c>
       <c r="C325" t="n">
-        <v>23819</v>
+        <v>23254</v>
       </c>
       <c r="D325" t="n">
-        <v>24410</v>
+        <v>23831</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4941,10 +4941,10 @@
         <v>5</v>
       </c>
       <c r="C326" t="n">
-        <v>23895</v>
+        <v>23329</v>
       </c>
       <c r="D326" t="n">
-        <v>24486</v>
+        <v>23906</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4955,10 +4955,10 @@
         <v>6</v>
       </c>
       <c r="C327" t="n">
-        <v>23948</v>
+        <v>23381</v>
       </c>
       <c r="D327" t="n">
-        <v>24539</v>
+        <v>23958</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4969,10 +4969,10 @@
         <v>7</v>
       </c>
       <c r="C328" t="n">
-        <v>24024</v>
+        <v>23456</v>
       </c>
       <c r="D328" t="n">
-        <v>24615</v>
+        <v>24033</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -4983,10 +4983,10 @@
         <v>8</v>
       </c>
       <c r="C329" t="n">
-        <v>24077</v>
+        <v>23508</v>
       </c>
       <c r="D329" t="n">
-        <v>24668</v>
+        <v>24085</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -4997,10 +4997,10 @@
         <v>1</v>
       </c>
       <c r="C330" t="n">
-        <v>24179</v>
+        <v>23611</v>
       </c>
       <c r="D330" t="n">
-        <v>24770</v>
+        <v>24188</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5011,10 +5011,10 @@
         <v>2</v>
       </c>
       <c r="C331" t="n">
+        <v>23704</v>
+      </c>
+      <c r="D331" t="n">
         <v>24281</v>
-      </c>
-      <c r="D331" t="n">
-        <v>24872</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5025,10 +5025,10 @@
         <v>3</v>
       </c>
       <c r="C332" t="n">
-        <v>24357</v>
+        <v>23779</v>
       </c>
       <c r="D332" t="n">
-        <v>24948</v>
+        <v>24356</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5039,10 +5039,10 @@
         <v>4</v>
       </c>
       <c r="C333" t="n">
-        <v>24410</v>
+        <v>23831</v>
       </c>
       <c r="D333" t="n">
-        <v>25001</v>
+        <v>24408</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5053,10 +5053,10 @@
         <v>5</v>
       </c>
       <c r="C334" t="n">
-        <v>24486</v>
+        <v>23906</v>
       </c>
       <c r="D334" t="n">
-        <v>25077</v>
+        <v>24483</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5067,10 +5067,10 @@
         <v>6</v>
       </c>
       <c r="C335" t="n">
-        <v>24539</v>
+        <v>23958</v>
       </c>
       <c r="D335" t="n">
-        <v>25130</v>
+        <v>24535</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5081,10 +5081,10 @@
         <v>7</v>
       </c>
       <c r="C336" t="n">
-        <v>24615</v>
+        <v>24033</v>
       </c>
       <c r="D336" t="n">
-        <v>25206</v>
+        <v>24610</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5095,10 +5095,10 @@
         <v>8</v>
       </c>
       <c r="C337" t="n">
-        <v>24668</v>
+        <v>24085</v>
       </c>
       <c r="D337" t="n">
-        <v>25259</v>
+        <v>24662</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5109,10 +5109,10 @@
         <v>1</v>
       </c>
       <c r="C338" t="n">
-        <v>24770</v>
+        <v>24188</v>
       </c>
       <c r="D338" t="n">
-        <v>25361</v>
+        <v>24765</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5123,10 +5123,10 @@
         <v>2</v>
       </c>
       <c r="C339" t="n">
-        <v>24872</v>
+        <v>24281</v>
       </c>
       <c r="D339" t="n">
-        <v>25463</v>
+        <v>24858</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5137,10 +5137,10 @@
         <v>3</v>
       </c>
       <c r="C340" t="n">
-        <v>24948</v>
+        <v>24356</v>
       </c>
       <c r="D340" t="n">
-        <v>25539</v>
+        <v>24933</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5151,10 +5151,10 @@
         <v>4</v>
       </c>
       <c r="C341" t="n">
-        <v>25001</v>
+        <v>24408</v>
       </c>
       <c r="D341" t="n">
-        <v>25592</v>
+        <v>24985</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5165,10 +5165,10 @@
         <v>5</v>
       </c>
       <c r="C342" t="n">
-        <v>25077</v>
+        <v>24483</v>
       </c>
       <c r="D342" t="n">
-        <v>25668</v>
+        <v>25060</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5179,10 +5179,10 @@
         <v>6</v>
       </c>
       <c r="C343" t="n">
-        <v>25130</v>
+        <v>24535</v>
       </c>
       <c r="D343" t="n">
-        <v>25721</v>
+        <v>25112</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5193,10 +5193,10 @@
         <v>7</v>
       </c>
       <c r="C344" t="n">
-        <v>25206</v>
+        <v>24610</v>
       </c>
       <c r="D344" t="n">
-        <v>25797</v>
+        <v>25187</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5207,10 +5207,10 @@
         <v>8</v>
       </c>
       <c r="C345" t="n">
-        <v>25259</v>
+        <v>24662</v>
       </c>
       <c r="D345" t="n">
-        <v>25850</v>
+        <v>25239</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5221,10 +5221,10 @@
         <v>1</v>
       </c>
       <c r="C346" t="n">
-        <v>25361</v>
+        <v>24765</v>
       </c>
       <c r="D346" t="n">
-        <v>25952</v>
+        <v>25342</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5235,10 +5235,10 @@
         <v>2</v>
       </c>
       <c r="C347" t="n">
-        <v>25463</v>
+        <v>24858</v>
       </c>
       <c r="D347" t="n">
-        <v>26054</v>
+        <v>25435</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5249,10 +5249,10 @@
         <v>3</v>
       </c>
       <c r="C348" t="n">
-        <v>25539</v>
+        <v>24933</v>
       </c>
       <c r="D348" t="n">
-        <v>26130</v>
+        <v>25510</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5263,10 +5263,10 @@
         <v>4</v>
       </c>
       <c r="C349" t="n">
-        <v>25592</v>
+        <v>24985</v>
       </c>
       <c r="D349" t="n">
-        <v>26183</v>
+        <v>25562</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5277,10 +5277,10 @@
         <v>5</v>
       </c>
       <c r="C350" t="n">
-        <v>25668</v>
+        <v>25060</v>
       </c>
       <c r="D350" t="n">
-        <v>26259</v>
+        <v>25637</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5291,10 +5291,10 @@
         <v>6</v>
       </c>
       <c r="C351" t="n">
-        <v>25721</v>
+        <v>25112</v>
       </c>
       <c r="D351" t="n">
-        <v>26312</v>
+        <v>25689</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5305,10 +5305,10 @@
         <v>7</v>
       </c>
       <c r="C352" t="n">
-        <v>25797</v>
+        <v>25187</v>
       </c>
       <c r="D352" t="n">
-        <v>26388</v>
+        <v>25764</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5319,10 +5319,10 @@
         <v>8</v>
       </c>
       <c r="C353" t="n">
-        <v>25850</v>
+        <v>25239</v>
       </c>
       <c r="D353" t="n">
-        <v>26441</v>
+        <v>25816</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5333,10 +5333,10 @@
         <v>1</v>
       </c>
       <c r="C354" t="n">
-        <v>25952</v>
+        <v>25342</v>
       </c>
       <c r="D354" t="n">
-        <v>26543</v>
+        <v>25919</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5347,10 +5347,10 @@
         <v>2</v>
       </c>
       <c r="C355" t="n">
-        <v>26054</v>
+        <v>25435</v>
       </c>
       <c r="D355" t="n">
-        <v>26645</v>
+        <v>26012</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5361,10 +5361,10 @@
         <v>3</v>
       </c>
       <c r="C356" t="n">
-        <v>26130</v>
+        <v>25510</v>
       </c>
       <c r="D356" t="n">
-        <v>26721</v>
+        <v>26087</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5375,10 +5375,10 @@
         <v>4</v>
       </c>
       <c r="C357" t="n">
-        <v>26183</v>
+        <v>25562</v>
       </c>
       <c r="D357" t="n">
-        <v>26774</v>
+        <v>26139</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5389,10 +5389,10 @@
         <v>5</v>
       </c>
       <c r="C358" t="n">
-        <v>26259</v>
+        <v>25637</v>
       </c>
       <c r="D358" t="n">
-        <v>26850</v>
+        <v>26214</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5403,10 +5403,10 @@
         <v>6</v>
       </c>
       <c r="C359" t="n">
-        <v>26312</v>
+        <v>25689</v>
       </c>
       <c r="D359" t="n">
-        <v>26903</v>
+        <v>26266</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5417,10 +5417,10 @@
         <v>7</v>
       </c>
       <c r="C360" t="n">
-        <v>26388</v>
+        <v>25764</v>
       </c>
       <c r="D360" t="n">
-        <v>26979</v>
+        <v>26341</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5431,10 +5431,10 @@
         <v>8</v>
       </c>
       <c r="C361" t="n">
-        <v>26441</v>
+        <v>25816</v>
       </c>
       <c r="D361" t="n">
-        <v>27032</v>
+        <v>26393</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5445,10 +5445,10 @@
         <v>1</v>
       </c>
       <c r="C362" t="n">
-        <v>26543</v>
+        <v>25919</v>
       </c>
       <c r="D362" t="n">
-        <v>27134</v>
+        <v>26496</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5459,10 +5459,10 @@
         <v>2</v>
       </c>
       <c r="C363" t="n">
-        <v>26645</v>
+        <v>26012</v>
       </c>
       <c r="D363" t="n">
-        <v>27236</v>
+        <v>26589</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5473,10 +5473,10 @@
         <v>3</v>
       </c>
       <c r="C364" t="n">
-        <v>26721</v>
+        <v>26087</v>
       </c>
       <c r="D364" t="n">
-        <v>27312</v>
+        <v>26664</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5487,10 +5487,10 @@
         <v>4</v>
       </c>
       <c r="C365" t="n">
-        <v>26774</v>
+        <v>26139</v>
       </c>
       <c r="D365" t="n">
-        <v>27365</v>
+        <v>26716</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5501,10 +5501,10 @@
         <v>5</v>
       </c>
       <c r="C366" t="n">
-        <v>26850</v>
+        <v>26214</v>
       </c>
       <c r="D366" t="n">
-        <v>27441</v>
+        <v>26791</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -5515,10 +5515,10 @@
         <v>6</v>
       </c>
       <c r="C367" t="n">
-        <v>26903</v>
+        <v>26266</v>
       </c>
       <c r="D367" t="n">
-        <v>27494</v>
+        <v>26843</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -5529,10 +5529,10 @@
         <v>7</v>
       </c>
       <c r="C368" t="n">
-        <v>26979</v>
+        <v>26341</v>
       </c>
       <c r="D368" t="n">
-        <v>27570</v>
+        <v>26918</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -5543,10 +5543,10 @@
         <v>8</v>
       </c>
       <c r="C369" t="n">
-        <v>27032</v>
+        <v>26393</v>
       </c>
       <c r="D369" t="n">
-        <v>27623</v>
+        <v>26970</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -5557,10 +5557,10 @@
         <v>1</v>
       </c>
       <c r="C370" t="n">
-        <v>27134</v>
+        <v>26496</v>
       </c>
       <c r="D370" t="n">
-        <v>27725</v>
+        <v>27073</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -5571,10 +5571,10 @@
         <v>2</v>
       </c>
       <c r="C371" t="n">
-        <v>27236</v>
+        <v>26589</v>
       </c>
       <c r="D371" t="n">
-        <v>27827</v>
+        <v>27166</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -5585,10 +5585,10 @@
         <v>3</v>
       </c>
       <c r="C372" t="n">
-        <v>27312</v>
+        <v>26664</v>
       </c>
       <c r="D372" t="n">
-        <v>27903</v>
+        <v>27241</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -5599,10 +5599,10 @@
         <v>4</v>
       </c>
       <c r="C373" t="n">
-        <v>27365</v>
+        <v>26716</v>
       </c>
       <c r="D373" t="n">
-        <v>27956</v>
+        <v>27293</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -5613,10 +5613,10 @@
         <v>5</v>
       </c>
       <c r="C374" t="n">
-        <v>27441</v>
+        <v>26791</v>
       </c>
       <c r="D374" t="n">
-        <v>28032</v>
+        <v>27368</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -5627,10 +5627,10 @@
         <v>6</v>
       </c>
       <c r="C375" t="n">
-        <v>27494</v>
+        <v>26843</v>
       </c>
       <c r="D375" t="n">
-        <v>28085</v>
+        <v>27420</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -5641,10 +5641,10 @@
         <v>7</v>
       </c>
       <c r="C376" t="n">
-        <v>27570</v>
+        <v>26918</v>
       </c>
       <c r="D376" t="n">
-        <v>28161</v>
+        <v>27495</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -5655,10 +5655,10 @@
         <v>8</v>
       </c>
       <c r="C377" t="n">
-        <v>27623</v>
+        <v>26970</v>
       </c>
       <c r="D377" t="n">
-        <v>28214</v>
+        <v>27547</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -5669,10 +5669,10 @@
         <v>1</v>
       </c>
       <c r="C378" t="n">
-        <v>27725</v>
+        <v>27073</v>
       </c>
       <c r="D378" t="n">
-        <v>28316</v>
+        <v>27650</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -5683,10 +5683,10 @@
         <v>2</v>
       </c>
       <c r="C379" t="n">
-        <v>27827</v>
+        <v>27166</v>
       </c>
       <c r="D379" t="n">
-        <v>28418</v>
+        <v>27743</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -5697,10 +5697,10 @@
         <v>3</v>
       </c>
       <c r="C380" t="n">
-        <v>27903</v>
+        <v>27241</v>
       </c>
       <c r="D380" t="n">
-        <v>28494</v>
+        <v>27818</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -5711,10 +5711,10 @@
         <v>4</v>
       </c>
       <c r="C381" t="n">
-        <v>27956</v>
+        <v>27293</v>
       </c>
       <c r="D381" t="n">
-        <v>28547</v>
+        <v>27870</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -5725,10 +5725,10 @@
         <v>5</v>
       </c>
       <c r="C382" t="n">
-        <v>28032</v>
+        <v>27368</v>
       </c>
       <c r="D382" t="n">
-        <v>28623</v>
+        <v>27945</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -5739,10 +5739,150 @@
         <v>6</v>
       </c>
       <c r="C383" t="n">
-        <v>28085</v>
+        <v>27420</v>
       </c>
       <c r="D383" t="n">
-        <v>28676</v>
+        <v>27997</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" t="n">
+        <v>383</v>
+      </c>
+      <c r="B384" t="n">
+        <v>7</v>
+      </c>
+      <c r="C384" t="n">
+        <v>27495</v>
+      </c>
+      <c r="D384" t="n">
+        <v>28072</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" t="n">
+        <v>384</v>
+      </c>
+      <c r="B385" t="n">
+        <v>8</v>
+      </c>
+      <c r="C385" t="n">
+        <v>27547</v>
+      </c>
+      <c r="D385" t="n">
+        <v>28124</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" t="n">
+        <v>385</v>
+      </c>
+      <c r="B386" t="n">
+        <v>1</v>
+      </c>
+      <c r="C386" t="n">
+        <v>27650</v>
+      </c>
+      <c r="D386" t="n">
+        <v>28227</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" t="n">
+        <v>386</v>
+      </c>
+      <c r="B387" t="n">
+        <v>2</v>
+      </c>
+      <c r="C387" t="n">
+        <v>27743</v>
+      </c>
+      <c r="D387" t="n">
+        <v>28320</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" t="n">
+        <v>387</v>
+      </c>
+      <c r="B388" t="n">
+        <v>3</v>
+      </c>
+      <c r="C388" t="n">
+        <v>27818</v>
+      </c>
+      <c r="D388" t="n">
+        <v>28395</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" t="n">
+        <v>388</v>
+      </c>
+      <c r="B389" t="n">
+        <v>4</v>
+      </c>
+      <c r="C389" t="n">
+        <v>27870</v>
+      </c>
+      <c r="D389" t="n">
+        <v>28447</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" t="n">
+        <v>389</v>
+      </c>
+      <c r="B390" t="n">
+        <v>5</v>
+      </c>
+      <c r="C390" t="n">
+        <v>27945</v>
+      </c>
+      <c r="D390" t="n">
+        <v>28522</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" t="n">
+        <v>390</v>
+      </c>
+      <c r="B391" t="n">
+        <v>6</v>
+      </c>
+      <c r="C391" t="n">
+        <v>27997</v>
+      </c>
+      <c r="D391" t="n">
+        <v>28574</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" t="n">
+        <v>391</v>
+      </c>
+      <c r="B392" t="n">
+        <v>7</v>
+      </c>
+      <c r="C392" t="n">
+        <v>28072</v>
+      </c>
+      <c r="D392" t="n">
+        <v>28649</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" t="n">
+        <v>392</v>
+      </c>
+      <c r="B393" t="n">
+        <v>8</v>
+      </c>
+      <c r="C393" t="n">
+        <v>28124</v>
+      </c>
+      <c r="D393" t="n">
+        <v>28701</v>
       </c>
     </row>
   </sheetData>
